--- a/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.2/avg_0.004_scores.xlsx
+++ b/results/mp/tinybert/toy-spam/confidence/84/stop-words-0.2/avg_0.004_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="65">
   <si>
     <t>anchor score</t>
   </si>
@@ -43,21 +43,21 @@
     <t>poorly</t>
   </si>
   <si>
+    <t>however</t>
+  </si>
+  <si>
+    <t>disappointed</t>
+  </si>
+  <si>
+    <t>poor</t>
+  </si>
+  <si>
+    <t>returned</t>
+  </si>
+  <si>
     <t>disappointing</t>
   </si>
   <si>
-    <t>however</t>
-  </si>
-  <si>
-    <t>poor</t>
-  </si>
-  <si>
-    <t>returned</t>
-  </si>
-  <si>
-    <t>disappointed</t>
-  </si>
-  <si>
     <t>broke</t>
   </si>
   <si>
@@ -82,63 +82,69 @@
     <t>broken</t>
   </si>
   <si>
+    <t>apart</t>
+  </si>
+  <si>
     <t>plastic</t>
   </si>
   <si>
+    <t>thought</t>
+  </si>
+  <si>
+    <t>ok</t>
+  </si>
+  <si>
     <t>difficult</t>
   </si>
   <si>
-    <t>apart</t>
+    <t>bit</t>
   </si>
   <si>
     <t>cheap</t>
   </si>
   <si>
-    <t>thought</t>
-  </si>
-  <si>
-    <t>ok</t>
-  </si>
-  <si>
     <t>though</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
+    <t>money</t>
+  </si>
+  <si>
+    <t>back</t>
+  </si>
+  <si>
+    <t>would</t>
+  </si>
+  <si>
+    <t>item</t>
+  </si>
+  <si>
+    <t>hard</t>
+  </si>
+  <si>
     <t>work</t>
   </si>
   <si>
-    <t>item</t>
-  </si>
-  <si>
-    <t>could</t>
-  </si>
-  <si>
-    <t>would</t>
-  </si>
-  <si>
     <t>used</t>
   </si>
   <si>
-    <t>money</t>
-  </si>
-  <si>
-    <t>hard</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
+    <t>better</t>
+  </si>
+  <si>
     <t>product</t>
   </si>
   <si>
-    <t>better</t>
-  </si>
-  <si>
     <t>3</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>use</t>
   </si>
   <si>
@@ -182,6 +188,9 @@
   </si>
   <si>
     <t>loves</t>
+  </si>
+  <si>
+    <t>best</t>
   </si>
   <si>
     <t>perfect</t>
@@ -557,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q40"/>
+  <dimension ref="A1:Q42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -565,10 +574,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="J1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -626,13 +635,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>1</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="C3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D3">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -644,19 +653,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K3">
-        <v>0.8035714285714286</v>
+        <v>0.875</v>
       </c>
       <c r="L3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="M3">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -668,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -676,13 +685,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.8636363636363636</v>
+        <v>0.796875</v>
       </c>
       <c r="C4">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="D4">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -694,19 +703,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K4">
-        <v>0.8</v>
+        <v>0.8461538461538461</v>
       </c>
       <c r="L4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="M4">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -718,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -726,13 +735,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.78125</v>
+        <v>0.7903225806451613</v>
       </c>
       <c r="C5">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="D5">
-        <v>50</v>
+        <v>147</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -744,19 +753,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>14</v>
+        <v>39</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K5">
-        <v>0.6774193548387096</v>
+        <v>0.6451612903225806</v>
       </c>
       <c r="L5">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="M5">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -768,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -776,13 +785,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.7746478873239436</v>
+        <v>0.7887323943661971</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D6">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -794,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K6">
-        <v>0.6226415094339622</v>
+        <v>0.6415094339622641</v>
       </c>
       <c r="L6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M6">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -818,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -847,16 +856,16 @@
         <v>9</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K7">
-        <v>0.5</v>
+        <v>0.515625</v>
       </c>
       <c r="L7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="M7">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -868,7 +877,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -876,13 +885,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.7580645161290323</v>
+        <v>0.75</v>
       </c>
       <c r="C8">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="D8">
-        <v>141</v>
+        <v>33</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -894,19 +903,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>45</v>
+        <v>11</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K8">
-        <v>0.4347826086956522</v>
+        <v>0.4492753623188406</v>
       </c>
       <c r="L8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M8">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -918,7 +927,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -926,13 +935,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.7135922330097088</v>
+        <v>0.7330097087378641</v>
       </c>
       <c r="C9">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D9">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -944,19 +953,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K9">
-        <v>0.3680327868852459</v>
+        <v>0.3795081967213115</v>
       </c>
       <c r="L9">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="M9">
-        <v>449</v>
+        <v>463</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -968,7 +977,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>771</v>
+        <v>757</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -976,13 +985,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.6621621621621622</v>
+        <v>0.6891891891891891</v>
       </c>
       <c r="C10">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="D10">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -994,19 +1003,19 @@
         <v>0</v>
       </c>
       <c r="H10">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K10">
-        <v>0.3256814921090387</v>
+        <v>0.351506456241033</v>
       </c>
       <c r="L10">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="M10">
-        <v>227</v>
+        <v>245</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1018,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>470</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1026,13 +1035,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.6041666666666666</v>
+        <v>0.6875</v>
       </c>
       <c r="C11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D11">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1044,19 +1053,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K11">
-        <v>0.3112033195020747</v>
+        <v>0.3049792531120332</v>
       </c>
       <c r="L11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="M11">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1068,7 +1077,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>332</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1076,13 +1085,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5818181818181818</v>
+        <v>0.6181818181818182</v>
       </c>
       <c r="C12">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D12">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1094,19 +1103,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K12">
-        <v>0.2168674698795181</v>
+        <v>0.2833333333333333</v>
       </c>
       <c r="L12">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="M12">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1118,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>130</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1126,13 +1135,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.5798319327731093</v>
+        <v>0.5714285714285714</v>
       </c>
       <c r="C13">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D13">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1144,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K13">
-        <v>0.1926605504587156</v>
+        <v>0.2168674698795181</v>
       </c>
       <c r="L13">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="M13">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1168,7 +1177,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>264</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1176,13 +1185,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.5740740740740741</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="C14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D14">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1194,19 +1203,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K14">
-        <v>0.164021164021164</v>
+        <v>0.2110091743119266</v>
       </c>
       <c r="L14">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="M14">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1218,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>158</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1226,13 +1235,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.4956521739130435</v>
+        <v>0.5217391304347826</v>
       </c>
       <c r="C15">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="D15">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1244,19 +1253,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K15">
-        <v>0.09553023663453111</v>
+        <v>0.1693121693121693</v>
       </c>
       <c r="L15">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="M15">
-        <v>109</v>
+        <v>32</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1268,7 +1277,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>1032</v>
+        <v>157</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1276,13 +1285,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.4939759036144578</v>
+        <v>0.4457831325301205</v>
       </c>
       <c r="C16">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1294,45 +1303,45 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K16">
-        <v>0.050682261208577</v>
+        <v>0.1034180543382997</v>
       </c>
       <c r="L16">
-        <v>78</v>
+        <v>118</v>
       </c>
       <c r="M16">
-        <v>80</v>
+        <v>118</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P16" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1461</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1" t="s">
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.4566929133858268</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C17">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="D17">
-        <v>58</v>
+        <v>40</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1344,21 +1353,45 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>55</v>
+      </c>
+      <c r="J17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K17">
+        <v>0.0474025974025974</v>
+      </c>
+      <c r="L17">
+        <v>73</v>
+      </c>
+      <c r="M17">
+        <v>74</v>
+      </c>
+      <c r="N17">
+        <v>0.99</v>
+      </c>
+      <c r="O17">
+        <v>0.01000000000000001</v>
+      </c>
+      <c r="P17" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q17">
+        <v>1467</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1" t="s">
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3932584269662922</v>
+        <v>0.4094488188976378</v>
       </c>
       <c r="C18">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="D18">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1370,21 +1403,21 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3789473684210526</v>
+        <v>0.3663366336633663</v>
       </c>
       <c r="C19">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="D19">
-        <v>36</v>
+        <v>74</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -1396,21 +1429,21 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1" t="s">
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.3317535545023697</v>
+        <v>0.34375</v>
       </c>
       <c r="C20">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="D20">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="E20">
         <v>0</v>
@@ -1422,21 +1455,21 @@
         <v>0</v>
       </c>
       <c r="H20">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.3267326732673267</v>
+        <v>0.3370786516853932</v>
       </c>
       <c r="C21">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="D21">
-        <v>66</v>
+        <v>30</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1448,21 +1481,21 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1" t="s">
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.3125</v>
+        <v>0.3265306122448979</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -1474,21 +1507,21 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.282051282051282</v>
+        <v>0.3175355450236967</v>
       </c>
       <c r="C23">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="D23">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1500,21 +1533,21 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1" t="s">
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.2525773195876289</v>
+        <v>0.282051282051282</v>
       </c>
       <c r="C24">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>49</v>
+        <v>33</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1526,21 +1559,21 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.2183544303797468</v>
+        <v>0.211340206185567</v>
       </c>
       <c r="C25">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D25">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1552,21 +1585,21 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
       <c r="A26" s="1" t="s">
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.2173913043478261</v>
+        <v>0.2088607594936709</v>
       </c>
       <c r="C26">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="D26">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="E26">
         <v>0</v>
@@ -1578,21 +1611,21 @@
         <v>0</v>
       </c>
       <c r="H26">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
       <c r="A27" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.2165605095541401</v>
+        <v>0.2071428571428572</v>
       </c>
       <c r="C27">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D27">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -1604,21 +1637,21 @@
         <v>0</v>
       </c>
       <c r="H27">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="1" t="s">
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.2077151335311573</v>
+        <v>0.2047477744807122</v>
       </c>
       <c r="C28">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D28">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E28">
         <v>0</v>
@@ -1630,21 +1663,21 @@
         <v>0</v>
       </c>
       <c r="H28">
-        <v>534</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
       <c r="A29" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.2057142857142857</v>
+        <v>0.1920289855072464</v>
       </c>
       <c r="C29">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="D29">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -1656,21 +1689,21 @@
         <v>0</v>
       </c>
       <c r="H29">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
       <c r="A30" s="1" t="s">
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.1993670886075949</v>
+        <v>0.19</v>
       </c>
       <c r="C30">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="D30">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="E30">
         <v>0</v>
@@ -1682,21 +1715,21 @@
         <v>0</v>
       </c>
       <c r="H30">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17">
       <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.18</v>
+        <v>0.1867088607594937</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="D31">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -1708,33 +1741,33 @@
         <v>0</v>
       </c>
       <c r="H31">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17">
       <c r="A32" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.1671469740634006</v>
+        <v>0.1771428571428571</v>
       </c>
       <c r="C32">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D32">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="E32">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="G32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>289</v>
+        <v>144</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1742,25 +1775,25 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.1651982378854626</v>
+        <v>0.1671469740634006</v>
       </c>
       <c r="C33">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="D33">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>0.02</v>
       </c>
       <c r="F33">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="G33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H33">
-        <v>379</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1768,13 +1801,13 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.1542056074766355</v>
+        <v>0.1635514018691589</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D34">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="E34">
         <v>0</v>
@@ -1786,7 +1819,7 @@
         <v>0</v>
       </c>
       <c r="H34">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1794,13 +1827,13 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.1370967741935484</v>
+        <v>0.1563876651982379</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="D35">
-        <v>34</v>
+        <v>71</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -1812,7 +1845,7 @@
         <v>0</v>
       </c>
       <c r="H35">
-        <v>214</v>
+        <v>383</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1820,25 +1853,25 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.1041095890410959</v>
+        <v>0.1463414634146341</v>
       </c>
       <c r="C36">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D36">
         <v>38</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>0.05</v>
       </c>
       <c r="F36">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="G36" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H36">
-        <v>327</v>
+        <v>210</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1846,13 +1879,13 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.08450704225352113</v>
+        <v>0.1310861423220974</v>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D37">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -1864,7 +1897,7 @@
         <v>0</v>
       </c>
       <c r="H37">
-        <v>325</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1872,25 +1905,25 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.08250825082508251</v>
+        <v>0.1205479452054795</v>
       </c>
       <c r="C38">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="D38">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E38">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="G38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>556</v>
+        <v>321</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1898,13 +1931,13 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.07572383073496659</v>
+        <v>0.09014084507042254</v>
       </c>
       <c r="C39">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D39">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E39">
         <v>0</v>
@@ -1916,7 +1949,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>415</v>
+        <v>323</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1924,25 +1957,77 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.03807106598984772</v>
+        <v>0.07920792079207921</v>
       </c>
       <c r="C40">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="D40">
+        <v>50</v>
+      </c>
+      <c r="E40">
+        <v>0.04</v>
+      </c>
+      <c r="F40">
+        <v>0.96</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
+      <c r="A41" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="B41">
+        <v>0.07366071428571429</v>
+      </c>
+      <c r="C41">
+        <v>33</v>
+      </c>
+      <c r="D41">
+        <v>34</v>
+      </c>
+      <c r="E41">
+        <v>0.03</v>
+      </c>
+      <c r="F41">
+        <v>0.97</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
+      <c r="A42" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B42">
+        <v>0.04556962025316456</v>
+      </c>
+      <c r="C42">
         <v>36</v>
       </c>
-      <c r="E40">
-        <v>0.17</v>
-      </c>
-      <c r="F40">
-        <v>0.83</v>
-      </c>
-      <c r="G40" t="b">
-        <v>1</v>
-      </c>
-      <c r="H40">
-        <v>758</v>
+      <c r="D42">
+        <v>40</v>
+      </c>
+      <c r="E42">
+        <v>0.1</v>
+      </c>
+      <c r="F42">
+        <v>0.9</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42">
+        <v>754</v>
       </c>
     </row>
   </sheetData>
